--- a/PROPERTIES/QYOTA/QYOTA 2025.xlsx
+++ b/PROPERTIES/QYOTA/QYOTA 2025.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="420">
   <si>
     <t xml:space="preserve">COURTLAND REALTORS LTD P.O.BOX 11993, NAIROBI</t>
   </si>
@@ -1262,6 +1262,9 @@
   </si>
   <si>
     <t xml:space="preserve">HANNAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGB8JH3R6G</t>
   </si>
   <si>
     <t xml:space="preserve">TG59OQJ4PL</t>
@@ -3822,7 +3825,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4662,13 +4665,19 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="93"/>
+      <c r="J28" s="93" t="n">
+        <v>11250</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="97"/>
+      <c r="O28" s="67" t="n">
+        <v>45968</v>
+      </c>
+      <c r="P28" s="97" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="n">
@@ -4703,7 +4712,7 @@
         <v>45784</v>
       </c>
       <c r="P29" s="107" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,7 +4720,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C30" s="96" t="n">
         <v>717334827</v>
@@ -4739,7 +4748,7 @@
         <v>45845</v>
       </c>
       <c r="P30" s="108" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,10 +4816,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C33" s="113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D33" s="61" t="n">
         <v>12000</v>
@@ -4922,10 +4931,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D37" s="18" t="n">
         <v>12000</v>
@@ -4950,7 +4959,7 @@
         <v>45876</v>
       </c>
       <c r="P37" s="97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,7 +4967,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C38" s="100" t="n">
         <v>707653219</v>
@@ -4984,7 +4993,7 @@
         <v>45695</v>
       </c>
       <c r="P38" s="97" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
